--- a/node-central/equiposPruebasssss.xlsx
+++ b/node-central/equiposPruebasssss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\IPS%20Central\node-central\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omega\Desktop\IPS%20Central\node-central\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F2B4AB-3F2A-4BAF-A922-DD7D63E41793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B730DED6-CC2B-4974-9548-0422678D3D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20820" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -783,37 +783,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1157,108 +1136,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="3" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.73046875" customWidth="1"/>
+    <col min="2" max="3" width="41.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.1328125" customWidth="1"/>
+    <col min="6" max="7" width="15.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1271,45 +1250,45 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1301,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <f>SUM(F4:K4)</f>
         <v>3557</v>
       </c>
@@ -1363,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1376,7 +1355,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <f t="shared" ref="E5:E68" si="0">SUM(F5:K5)</f>
         <v>212</v>
       </c>
@@ -1417,7 +1396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1409,7 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
@@ -1471,7 +1450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1463,7 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>569.5</v>
       </c>
@@ -1525,7 +1504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1517,7 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
@@ -1579,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1571,7 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1633,7 +1612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1646,7 +1625,7 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
@@ -1687,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1700,7 +1679,7 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>568.5</v>
       </c>
@@ -1741,7 +1720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1733,7 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
@@ -1795,7 +1774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1787,7 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
@@ -1849,7 +1828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1862,7 +1841,7 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
@@ -1903,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1916,7 +1895,7 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -1957,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1970,7 +1949,7 @@
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
@@ -2011,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2024,7 +2003,7 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>4232.5</v>
       </c>
@@ -2065,7 +2044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2078,7 +2057,7 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
@@ -2119,7 +2098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2132,7 +2111,7 @@
       <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
@@ -2173,7 +2152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +2165,7 @@
       <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2227,7 +2206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2240,7 +2219,7 @@
       <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
@@ -2281,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2273,7 @@
       <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2335,7 +2314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2348,7 +2327,7 @@
       <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>445.5</v>
       </c>
@@ -2389,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2402,7 +2381,7 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2443,7 +2422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2435,7 @@
       <c r="D25" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>883</v>
       </c>
@@ -2497,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2510,7 +2489,7 @@
       <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>848</v>
       </c>
@@ -2551,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2543,7 @@
       <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2605,7 +2584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2618,7 +2597,7 @@
       <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>536</v>
       </c>
@@ -2659,7 +2638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2672,7 +2651,7 @@
       <c r="D29" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2713,7 +2692,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2726,7 +2705,7 @@
       <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2767,7 +2746,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2780,7 +2759,7 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
@@ -2821,7 +2800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2834,7 +2813,7 @@
       <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>192.5</v>
       </c>
@@ -2875,7 +2854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2888,7 +2867,7 @@
       <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
@@ -2929,7 +2908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2942,7 +2921,7 @@
       <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2983,7 +2962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2996,7 +2975,7 @@
       <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
@@ -3037,7 +3016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3050,7 +3029,7 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -3091,7 +3070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3104,7 +3083,7 @@
       <c r="D37" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -3145,7 +3124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3158,7 +3137,7 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
         <v>1850.5</v>
       </c>
@@ -3199,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3212,7 +3191,7 @@
       <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="6">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -3253,7 +3232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3266,7 +3245,7 @@
       <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3307,7 +3286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3320,7 +3299,7 @@
       <c r="D41" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -3361,7 +3340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3374,7 +3353,7 @@
       <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="6">
         <f t="shared" si="0"/>
         <v>464</v>
       </c>
@@ -3415,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3428,7 +3407,7 @@
       <c r="D43" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="6">
         <f t="shared" si="0"/>
         <v>302</v>
       </c>
@@ -3469,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3482,7 +3461,7 @@
       <c r="D44" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="6">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
@@ -3523,7 +3502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3536,7 +3515,7 @@
       <c r="D45" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="6">
         <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
@@ -3577,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3590,7 +3569,7 @@
       <c r="D46" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="6">
         <f t="shared" si="0"/>
         <v>62.25</v>
       </c>
@@ -3631,7 +3610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3644,7 +3623,7 @@
       <c r="D47" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3685,7 +3664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -3698,7 +3677,7 @@
       <c r="D48" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="6">
         <f t="shared" si="0"/>
         <v>542.75</v>
       </c>
@@ -3739,7 +3718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3752,7 +3731,7 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="6">
         <f t="shared" si="0"/>
         <v>148.5</v>
       </c>
@@ -3793,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3806,7 +3785,7 @@
       <c r="D50" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -3847,7 +3826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3860,7 +3839,7 @@
       <c r="D51" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="6">
         <f t="shared" si="0"/>
         <v>31.75</v>
       </c>
@@ -3901,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -3914,7 +3893,7 @@
       <c r="D52" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="6">
         <f t="shared" si="0"/>
         <v>74.75</v>
       </c>
@@ -3955,7 +3934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3968,7 +3947,7 @@
       <c r="D53" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -4009,7 +3988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -4022,7 +4001,7 @@
       <c r="D54" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4063,7 +4042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -4076,7 +4055,7 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="6">
         <f t="shared" si="0"/>
         <v>2154.75</v>
       </c>
@@ -4117,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -4130,7 +4109,7 @@
       <c r="D56" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="6">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
@@ -4171,7 +4150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -4184,7 +4163,7 @@
       <c r="D57" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="6">
         <f t="shared" si="0"/>
         <v>310.5</v>
       </c>
@@ -4225,7 +4204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -4238,7 +4217,7 @@
       <c r="D58" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="6">
         <f t="shared" si="0"/>
         <v>374.75</v>
       </c>
@@ -4279,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -4292,7 +4271,7 @@
       <c r="D59" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4333,7 +4312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4346,7 +4325,7 @@
       <c r="D60" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="6">
         <f t="shared" si="0"/>
         <v>373.25</v>
       </c>
@@ -4387,7 +4366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -4400,7 +4379,7 @@
       <c r="D61" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="6">
         <f t="shared" si="0"/>
         <v>380.25</v>
       </c>
@@ -4441,7 +4420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -4454,7 +4433,7 @@
       <c r="D62" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -4495,7 +4474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4508,7 +4487,7 @@
       <c r="D63" t="s">
         <v>57</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="6">
         <f t="shared" si="0"/>
         <v>137.75</v>
       </c>
@@ -4549,7 +4528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -4562,7 +4541,7 @@
       <c r="D64" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="6">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
@@ -4603,7 +4582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -4616,7 +4595,7 @@
       <c r="D65" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="6">
         <f t="shared" si="0"/>
         <v>33.25</v>
       </c>
@@ -4657,7 +4636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -4670,7 +4649,7 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="6">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -4711,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -4724,7 +4703,7 @@
       <c r="D67" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="6">
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
@@ -4765,7 +4744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -4778,7 +4757,7 @@
       <c r="D68" t="s">
         <v>66</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="6">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
@@ -4819,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -4832,7 +4811,7 @@
       <c r="D69" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="6">
         <f t="shared" ref="E69:E132" si="1">SUM(F69:K69)</f>
         <v>7.5</v>
       </c>
@@ -4873,7 +4852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -4886,7 +4865,7 @@
       <c r="D70" t="s">
         <v>56</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="6">
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
@@ -4927,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -4940,7 +4919,7 @@
       <c r="D71" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="6">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
@@ -4981,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>221</v>
       </c>
@@ -4994,7 +4973,7 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="6">
         <f t="shared" si="1"/>
         <v>2184</v>
       </c>
@@ -5035,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -5048,7 +5027,7 @@
       <c r="D73" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="6">
         <f t="shared" si="1"/>
         <v>432</v>
       </c>
@@ -5089,7 +5068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -5102,7 +5081,7 @@
       <c r="D74" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="6">
         <f t="shared" si="1"/>
         <v>866</v>
       </c>
@@ -5143,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -5156,7 +5135,7 @@
       <c r="D75" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="6">
         <f t="shared" si="1"/>
         <v>886</v>
       </c>
@@ -5197,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>221</v>
       </c>
@@ -5210,7 +5189,7 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="6">
         <f t="shared" si="1"/>
         <v>597.5</v>
       </c>
@@ -5251,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>221</v>
       </c>
@@ -5264,7 +5243,7 @@
       <c r="D77" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="6">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
@@ -5305,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>221</v>
       </c>
@@ -5318,7 +5297,7 @@
       <c r="D78" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5359,7 +5338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -5372,7 +5351,7 @@
       <c r="D79" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="6">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -5413,7 +5392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>221</v>
       </c>
@@ -5426,7 +5405,7 @@
       <c r="D80" t="s">
         <v>75</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="6">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
@@ -5467,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -5480,7 +5459,7 @@
       <c r="D81" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5521,7 +5500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>221</v>
       </c>
@@ -5534,7 +5513,7 @@
       <c r="D82" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="6">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -5575,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>221</v>
       </c>
@@ -5588,7 +5567,7 @@
       <c r="D83" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -5629,7 +5608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>221</v>
       </c>
@@ -5642,7 +5621,7 @@
       <c r="D84" t="s">
         <v>72</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="6">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
@@ -5683,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>221</v>
       </c>
@@ -5696,7 +5675,7 @@
       <c r="D85" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5737,7 +5716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>221</v>
       </c>
@@ -5750,7 +5729,7 @@
       <c r="D86" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
@@ -5791,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>221</v>
       </c>
@@ -5804,7 +5783,7 @@
       <c r="D87" t="s">
         <v>27</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5845,7 +5824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>221</v>
       </c>
@@ -5858,7 +5837,7 @@
       <c r="D88" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="6">
         <f t="shared" si="1"/>
         <v>523.5</v>
       </c>
@@ -5899,7 +5878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -5912,7 +5891,7 @@
       <c r="D89" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="6">
         <f t="shared" si="1"/>
         <v>49.5</v>
       </c>
@@ -5953,7 +5932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>221</v>
       </c>
@@ -5966,7 +5945,7 @@
       <c r="D90" t="s">
         <v>81</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="6">
         <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
@@ -6007,7 +5986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>221</v>
       </c>
@@ -6020,7 +5999,7 @@
       <c r="D91" t="s">
         <v>23</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="6">
         <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
@@ -6061,7 +6040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -6074,7 +6053,7 @@
       <c r="D92" t="s">
         <v>78</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="6">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
@@ -6115,7 +6094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>221</v>
       </c>
@@ -6128,7 +6107,7 @@
       <c r="D93" t="s">
         <v>82</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -6169,7 +6148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>221</v>
       </c>
@@ -6182,7 +6161,7 @@
       <c r="D94" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="6">
         <f t="shared" si="1"/>
         <v>806</v>
       </c>
@@ -6223,7 +6202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -6236,7 +6215,7 @@
       <c r="D95" t="s">
         <v>84</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="6">
         <f t="shared" si="1"/>
         <v>806</v>
       </c>
@@ -6277,7 +6256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -6290,7 +6269,7 @@
       <c r="D96" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="6">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
@@ -6331,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -6344,7 +6323,7 @@
       <c r="D97" t="s">
         <v>31</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="6">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
@@ -6385,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -6398,7 +6377,7 @@
       <c r="D98" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="6">
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
@@ -6439,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -6452,7 +6431,7 @@
       <c r="D99" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="6">
         <f t="shared" si="1"/>
         <v>249.5</v>
       </c>
@@ -6493,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -6506,7 +6485,7 @@
       <c r="D100" t="s">
         <v>89</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6547,7 +6526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -6560,7 +6539,7 @@
       <c r="D101" t="s">
         <v>90</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -6601,7 +6580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -6614,7 +6593,7 @@
       <c r="D102" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="6">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
@@ -6655,7 +6634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -6668,7 +6647,7 @@
       <c r="D103" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="6">
         <f t="shared" si="1"/>
         <v>3483.75</v>
       </c>
@@ -6709,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>91</v>
       </c>
@@ -6722,7 +6701,7 @@
       <c r="D104" t="s">
         <v>74</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="6">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
@@ -6763,7 +6742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>91</v>
       </c>
@@ -6776,7 +6755,7 @@
       <c r="D105" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="6">
         <f t="shared" si="1"/>
         <v>889</v>
       </c>
@@ -6817,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>91</v>
       </c>
@@ -6830,7 +6809,7 @@
       <c r="D106" t="s">
         <v>95</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="6">
         <f t="shared" si="1"/>
         <v>867.25</v>
       </c>
@@ -6871,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -6884,7 +6863,7 @@
       <c r="D107" t="s">
         <v>96</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="6">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -6925,7 +6904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>91</v>
       </c>
@@ -6938,7 +6917,7 @@
       <c r="D108" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="6">
         <f t="shared" si="1"/>
         <v>752</v>
       </c>
@@ -6979,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>91</v>
       </c>
@@ -6992,7 +6971,7 @@
       <c r="D109" t="s">
         <v>93</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="6">
         <f t="shared" si="1"/>
         <v>832</v>
       </c>
@@ -7033,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>91</v>
       </c>
@@ -7046,7 +7025,7 @@
       <c r="D110" t="s">
         <v>98</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -7087,7 +7066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>222</v>
       </c>
@@ -7100,7 +7079,7 @@
       <c r="D111" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -7141,7 +7120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -7154,7 +7133,7 @@
       <c r="D112" t="s">
         <v>101</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -7195,7 +7174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -7208,7 +7187,7 @@
       <c r="D113" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -7249,7 +7228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>222</v>
       </c>
@@ -7262,7 +7241,7 @@
       <c r="D114" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -7303,7 +7282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -7316,7 +7295,7 @@
       <c r="D115" t="s">
         <v>104</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -7357,7 +7336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>222</v>
       </c>
@@ -7370,7 +7349,7 @@
       <c r="D116" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -7411,7 +7390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>222</v>
       </c>
@@ -7424,7 +7403,7 @@
       <c r="D117" t="s">
         <v>16</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -7465,7 +7444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>222</v>
       </c>
@@ -7478,7 +7457,7 @@
       <c r="D118" t="s">
         <v>102</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -7519,7 +7498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>222</v>
       </c>
@@ -7532,7 +7511,7 @@
       <c r="D119" t="s">
         <v>16</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="6">
         <f t="shared" si="1"/>
         <v>469</v>
       </c>
@@ -7573,7 +7552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -7586,7 +7565,7 @@
       <c r="D120" t="s">
         <v>104</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="6">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
@@ -7627,7 +7606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -7640,7 +7619,7 @@
       <c r="D121" t="s">
         <v>101</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -7681,7 +7660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>222</v>
       </c>
@@ -7694,7 +7673,7 @@
       <c r="D122" t="s">
         <v>102</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
@@ -7735,7 +7714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -7748,7 +7727,7 @@
       <c r="D123" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="6">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
@@ -7789,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -7802,7 +7781,7 @@
       <c r="D124" t="s">
         <v>102</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="6">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
@@ -7843,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -7856,7 +7835,7 @@
       <c r="D125" t="s">
         <v>16</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="6">
         <f t="shared" si="1"/>
         <v>1296.5</v>
       </c>
@@ -7897,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>222</v>
       </c>
@@ -7910,7 +7889,7 @@
       <c r="D126" t="s">
         <v>100</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E126" s="6">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
@@ -7951,7 +7930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>222</v>
       </c>
@@ -7964,7 +7943,7 @@
       <c r="D127" t="s">
         <v>104</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E127" s="6">
         <f t="shared" si="1"/>
         <v>417.5</v>
       </c>
@@ -8005,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>222</v>
       </c>
@@ -8018,7 +7997,7 @@
       <c r="D128" t="s">
         <v>101</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="6">
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
@@ -8059,7 +8038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>222</v>
       </c>
@@ -8072,7 +8051,7 @@
       <c r="D129" t="s">
         <v>102</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="6">
         <f t="shared" si="1"/>
         <v>391</v>
       </c>
@@ -8113,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>222</v>
       </c>
@@ -8126,7 +8105,7 @@
       <c r="D130" t="s">
         <v>16</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="6">
         <f t="shared" si="1"/>
         <v>594</v>
       </c>
@@ -8167,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -8180,7 +8159,7 @@
       <c r="D131" t="s">
         <v>100</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E131" s="6">
         <f t="shared" si="1"/>
         <v>594</v>
       </c>
@@ -8221,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>222</v>
       </c>
@@ -8234,7 +8213,7 @@
       <c r="D132" t="s">
         <v>16</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E132" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -8275,7 +8254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>222</v>
       </c>
@@ -8288,7 +8267,7 @@
       <c r="D133" t="s">
         <v>43</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="6">
         <f t="shared" ref="E133:E196" si="2">SUM(F133:K133)</f>
         <v>85</v>
       </c>
@@ -8329,7 +8308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>222</v>
       </c>
@@ -8342,7 +8321,7 @@
       <c r="D134" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="6">
         <f t="shared" si="2"/>
         <v>603.5</v>
       </c>
@@ -8383,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>222</v>
       </c>
@@ -8396,7 +8375,7 @@
       <c r="D135" t="s">
         <v>104</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="6">
         <f t="shared" si="2"/>
         <v>46.5</v>
       </c>
@@ -8437,7 +8416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>222</v>
       </c>
@@ -8450,7 +8429,7 @@
       <c r="D136" t="s">
         <v>101</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E136" s="6">
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
@@ -8491,7 +8470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -8504,7 +8483,7 @@
       <c r="D137" t="s">
         <v>16</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8545,7 +8524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -8558,7 +8537,7 @@
       <c r="D138" t="s">
         <v>114</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8599,7 +8578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -8612,7 +8591,7 @@
       <c r="D139" t="s">
         <v>115</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8653,7 +8632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -8666,7 +8645,7 @@
       <c r="D140" t="s">
         <v>16</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E140" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8707,7 +8686,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -8720,7 +8699,7 @@
       <c r="D141" t="s">
         <v>118</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E141" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8761,7 +8740,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>112</v>
       </c>
@@ -8774,7 +8753,7 @@
       <c r="D142" t="s">
         <v>119</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E142" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8815,7 +8794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -8828,7 +8807,7 @@
       <c r="D143" t="s">
         <v>117</v>
       </c>
-      <c r="E143" s="9">
+      <c r="E143" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8869,7 +8848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -8882,7 +8861,7 @@
       <c r="D144" t="s">
         <v>16</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E144" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8923,7 +8902,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -8936,7 +8915,7 @@
       <c r="D145" t="s">
         <v>73</v>
       </c>
-      <c r="E145" s="9">
+      <c r="E145" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8977,7 +8956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -8990,7 +8969,7 @@
       <c r="D146" t="s">
         <v>121</v>
       </c>
-      <c r="E146" s="9">
+      <c r="E146" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9031,7 +9010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -9044,7 +9023,7 @@
       <c r="D147" t="s">
         <v>122</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E147" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9085,7 +9064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -9098,7 +9077,7 @@
       <c r="D148" t="s">
         <v>69</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9139,7 +9118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -9152,7 +9131,7 @@
       <c r="D149" t="s">
         <v>54</v>
       </c>
-      <c r="E149" s="9">
+      <c r="E149" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9193,7 +9172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -9206,7 +9185,7 @@
       <c r="D150" t="s">
         <v>123</v>
       </c>
-      <c r="E150" s="9">
+      <c r="E150" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9247,7 +9226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -9260,7 +9239,7 @@
       <c r="D151" t="s">
         <v>30</v>
       </c>
-      <c r="E151" s="9">
+      <c r="E151" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9301,7 +9280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -9314,7 +9293,7 @@
       <c r="D152" t="s">
         <v>56</v>
       </c>
-      <c r="E152" s="9">
+      <c r="E152" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9355,7 +9334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -9368,7 +9347,7 @@
       <c r="D153" t="s">
         <v>124</v>
       </c>
-      <c r="E153" s="9">
+      <c r="E153" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9409,7 +9388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -9422,7 +9401,7 @@
       <c r="D154" t="s">
         <v>34</v>
       </c>
-      <c r="E154" s="9">
+      <c r="E154" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9463,7 +9442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -9476,7 +9455,7 @@
       <c r="D155" t="s">
         <v>78</v>
       </c>
-      <c r="E155" s="9">
+      <c r="E155" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9517,7 +9496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -9530,7 +9509,7 @@
       <c r="D156" t="s">
         <v>25</v>
       </c>
-      <c r="E156" s="9">
+      <c r="E156" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9571,7 +9550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -9584,7 +9563,7 @@
       <c r="D157" t="s">
         <v>84</v>
       </c>
-      <c r="E157" s="9">
+      <c r="E157" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9625,7 +9604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -9638,7 +9617,7 @@
       <c r="D158" t="s">
         <v>125</v>
       </c>
-      <c r="E158" s="9">
+      <c r="E158" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9679,7 +9658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -9692,7 +9671,7 @@
       <c r="D159" t="s">
         <v>39</v>
       </c>
-      <c r="E159" s="9">
+      <c r="E159" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9733,7 +9712,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -9746,7 +9725,7 @@
       <c r="D160" t="s">
         <v>16</v>
       </c>
-      <c r="E160" s="9">
+      <c r="E160" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9787,7 +9766,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -9800,7 +9779,7 @@
       <c r="D161" t="s">
         <v>18</v>
       </c>
-      <c r="E161" s="9">
+      <c r="E161" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9841,7 +9820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -9854,7 +9833,7 @@
       <c r="D162" t="s">
         <v>127</v>
       </c>
-      <c r="E162" s="9">
+      <c r="E162" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9895,7 +9874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>112</v>
       </c>
@@ -9908,7 +9887,7 @@
       <c r="D163" t="s">
         <v>81</v>
       </c>
-      <c r="E163" s="9">
+      <c r="E163" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9949,7 +9928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -9962,7 +9941,7 @@
       <c r="D164" t="s">
         <v>128</v>
       </c>
-      <c r="E164" s="9">
+      <c r="E164" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10003,7 +9982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -10016,7 +9995,7 @@
       <c r="D165" t="s">
         <v>56</v>
       </c>
-      <c r="E165" s="9">
+      <c r="E165" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10057,7 +10036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>112</v>
       </c>
@@ -10070,7 +10049,7 @@
       <c r="D166" t="s">
         <v>34</v>
       </c>
-      <c r="E166" s="9">
+      <c r="E166" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10111,7 +10090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>112</v>
       </c>
@@ -10124,7 +10103,7 @@
       <c r="D167" t="s">
         <v>97</v>
       </c>
-      <c r="E167" s="9">
+      <c r="E167" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10165,7 +10144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>112</v>
       </c>
@@ -10178,7 +10157,7 @@
       <c r="D168" t="s">
         <v>114</v>
       </c>
-      <c r="E168" s="9">
+      <c r="E168" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10219,7 +10198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>112</v>
       </c>
@@ -10232,7 +10211,7 @@
       <c r="D169" t="s">
         <v>129</v>
       </c>
-      <c r="E169" s="9">
+      <c r="E169" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10273,7 +10252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>112</v>
       </c>
@@ -10286,7 +10265,7 @@
       <c r="D170" t="s">
         <v>90</v>
       </c>
-      <c r="E170" s="9">
+      <c r="E170" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10327,7 +10306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>112</v>
       </c>
@@ -10340,7 +10319,7 @@
       <c r="D171" t="s">
         <v>16</v>
       </c>
-      <c r="E171" s="9">
+      <c r="E171" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10381,7 +10360,7 @@
         <v>76.289999999999992</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>112</v>
       </c>
@@ -10394,7 +10373,7 @@
       <c r="D172" t="s">
         <v>81</v>
       </c>
-      <c r="E172" s="9">
+      <c r="E172" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10435,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>112</v>
       </c>
@@ -10448,7 +10427,7 @@
       <c r="D173" t="s">
         <v>131</v>
       </c>
-      <c r="E173" s="9">
+      <c r="E173" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10489,7 +10468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>112</v>
       </c>
@@ -10502,7 +10481,7 @@
       <c r="D174" t="s">
         <v>34</v>
       </c>
-      <c r="E174" s="9">
+      <c r="E174" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10543,7 +10522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>112</v>
       </c>
@@ -10556,7 +10535,7 @@
       <c r="D175" t="s">
         <v>132</v>
       </c>
-      <c r="E175" s="9">
+      <c r="E175" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10597,7 +10576,7 @@
         <v>49.29</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>112</v>
       </c>
@@ -10610,7 +10589,7 @@
       <c r="D176" t="s">
         <v>16</v>
       </c>
-      <c r="E176" s="9">
+      <c r="E176" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10651,7 +10630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>112</v>
       </c>
@@ -10664,7 +10643,7 @@
       <c r="D177" t="s">
         <v>21</v>
       </c>
-      <c r="E177" s="9">
+      <c r="E177" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10705,7 +10684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>112</v>
       </c>
@@ -10718,7 +10697,7 @@
       <c r="D178" t="s">
         <v>134</v>
       </c>
-      <c r="E178" s="9">
+      <c r="E178" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10759,7 +10738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>112</v>
       </c>
@@ -10772,7 +10751,7 @@
       <c r="D179" t="s">
         <v>96</v>
       </c>
-      <c r="E179" s="9">
+      <c r="E179" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10813,7 +10792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>112</v>
       </c>
@@ -10826,7 +10805,7 @@
       <c r="D180" t="s">
         <v>135</v>
       </c>
-      <c r="E180" s="9">
+      <c r="E180" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10867,7 +10846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>112</v>
       </c>
@@ -10880,7 +10859,7 @@
       <c r="D181" t="s">
         <v>39</v>
       </c>
-      <c r="E181" s="9">
+      <c r="E181" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10921,7 +10900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>112</v>
       </c>
@@ -10934,7 +10913,7 @@
       <c r="D182" t="s">
         <v>16</v>
       </c>
-      <c r="E182" s="9">
+      <c r="E182" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10975,7 +10954,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>112</v>
       </c>
@@ -10988,7 +10967,7 @@
       <c r="D183" t="s">
         <v>137</v>
       </c>
-      <c r="E183" s="9">
+      <c r="E183" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11029,7 +11008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>112</v>
       </c>
@@ -11042,7 +11021,7 @@
       <c r="D184" t="s">
         <v>138</v>
       </c>
-      <c r="E184" s="9">
+      <c r="E184" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11083,7 +11062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>112</v>
       </c>
@@ -11096,7 +11075,7 @@
       <c r="D185" t="s">
         <v>139</v>
       </c>
-      <c r="E185" s="9">
+      <c r="E185" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11137,7 +11116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>112</v>
       </c>
@@ -11150,7 +11129,7 @@
       <c r="D186" t="s">
         <v>140</v>
       </c>
-      <c r="E186" s="9">
+      <c r="E186" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11191,7 +11170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>112</v>
       </c>
@@ -11204,7 +11183,7 @@
       <c r="D187" t="s">
         <v>141</v>
       </c>
-      <c r="E187" s="9">
+      <c r="E187" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11245,7 +11224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>112</v>
       </c>
@@ -11258,7 +11237,7 @@
       <c r="D188" t="s">
         <v>142</v>
       </c>
-      <c r="E188" s="9">
+      <c r="E188" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11299,7 +11278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>112</v>
       </c>
@@ -11312,7 +11291,7 @@
       <c r="D189" t="s">
         <v>143</v>
       </c>
-      <c r="E189" s="9">
+      <c r="E189" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11353,7 +11332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>112</v>
       </c>
@@ -11366,7 +11345,7 @@
       <c r="D190" t="s">
         <v>16</v>
       </c>
-      <c r="E190" s="9">
+      <c r="E190" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11407,7 +11386,7 @@
         <v>114.75</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>112</v>
       </c>
@@ -11420,7 +11399,7 @@
       <c r="D191" t="s">
         <v>145</v>
       </c>
-      <c r="E191" s="9">
+      <c r="E191" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11461,7 +11440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>112</v>
       </c>
@@ -11474,7 +11453,7 @@
       <c r="D192" t="s">
         <v>146</v>
       </c>
-      <c r="E192" s="9">
+      <c r="E192" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11515,7 +11494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>112</v>
       </c>
@@ -11528,7 +11507,7 @@
       <c r="D193" t="s">
         <v>147</v>
       </c>
-      <c r="E193" s="9">
+      <c r="E193" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11569,7 +11548,7 @@
         <v>62.75</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>112</v>
       </c>
@@ -11582,7 +11561,7 @@
       <c r="D194" t="s">
         <v>148</v>
       </c>
-      <c r="E194" s="9">
+      <c r="E194" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11623,7 +11602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>112</v>
       </c>
@@ -11636,7 +11615,7 @@
       <c r="D195" t="s">
         <v>16</v>
       </c>
-      <c r="E195" s="9">
+      <c r="E195" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11677,7 +11656,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>112</v>
       </c>
@@ -11690,7 +11669,7 @@
       <c r="D196" t="s">
         <v>18</v>
       </c>
-      <c r="E196" s="9">
+      <c r="E196" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11731,7 +11710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>112</v>
       </c>
@@ -11744,7 +11723,7 @@
       <c r="D197" t="s">
         <v>118</v>
       </c>
-      <c r="E197" s="9">
+      <c r="E197" s="6">
         <f t="shared" ref="E197:E260" si="3">SUM(F197:K197)</f>
         <v>0</v>
       </c>
@@ -11785,7 +11764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>112</v>
       </c>
@@ -11798,7 +11777,7 @@
       <c r="D198" t="s">
         <v>56</v>
       </c>
-      <c r="E198" s="9">
+      <c r="E198" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11839,7 +11818,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>112</v>
       </c>
@@ -11852,7 +11831,7 @@
       <c r="D199" t="s">
         <v>115</v>
       </c>
-      <c r="E199" s="9">
+      <c r="E199" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11893,7 +11872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>112</v>
       </c>
@@ -11906,7 +11885,7 @@
       <c r="D200" t="s">
         <v>16</v>
       </c>
-      <c r="E200" s="9">
+      <c r="E200" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11947,7 +11926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>112</v>
       </c>
@@ -11960,7 +11939,7 @@
       <c r="D201" t="s">
         <v>140</v>
       </c>
-      <c r="E201" s="9">
+      <c r="E201" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12001,7 +11980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>112</v>
       </c>
@@ -12014,7 +11993,7 @@
       <c r="D202" t="s">
         <v>142</v>
       </c>
-      <c r="E202" s="9">
+      <c r="E202" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12055,7 +12034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>112</v>
       </c>
@@ -12068,7 +12047,7 @@
       <c r="D203" t="s">
         <v>143</v>
       </c>
-      <c r="E203" s="9">
+      <c r="E203" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12109,7 +12088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>112</v>
       </c>
@@ -12122,7 +12101,7 @@
       <c r="D204" t="s">
         <v>152</v>
       </c>
-      <c r="E204" s="9">
+      <c r="E204" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12163,7 +12142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>112</v>
       </c>
@@ -12176,7 +12155,7 @@
       <c r="D205" t="s">
         <v>16</v>
       </c>
-      <c r="E205" s="9">
+      <c r="E205" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12217,7 +12196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>112</v>
       </c>
@@ -12230,7 +12209,7 @@
       <c r="D206" t="s">
         <v>155</v>
       </c>
-      <c r="E206" s="9">
+      <c r="E206" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12271,7 +12250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>112</v>
       </c>
@@ -12284,7 +12263,7 @@
       <c r="D207" t="s">
         <v>16</v>
       </c>
-      <c r="E207" s="9">
+      <c r="E207" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12325,7 +12304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>112</v>
       </c>
@@ -12338,7 +12317,7 @@
       <c r="D208" t="s">
         <v>139</v>
       </c>
-      <c r="E208" s="9">
+      <c r="E208" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12379,7 +12358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>112</v>
       </c>
@@ -12392,7 +12371,7 @@
       <c r="D209" t="s">
         <v>157</v>
       </c>
-      <c r="E209" s="9">
+      <c r="E209" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12433,7 +12412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>112</v>
       </c>
@@ -12446,7 +12425,7 @@
       <c r="D210" t="s">
         <v>141</v>
       </c>
-      <c r="E210" s="9">
+      <c r="E210" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12487,7 +12466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>158</v>
       </c>
@@ -12500,7 +12479,7 @@
       <c r="D211" t="s">
         <v>16</v>
       </c>
-      <c r="E211" s="9">
+      <c r="E211" s="6">
         <f t="shared" si="3"/>
         <v>472</v>
       </c>
@@ -12541,7 +12520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>158</v>
       </c>
@@ -12554,7 +12533,7 @@
       <c r="D212" t="s">
         <v>75</v>
       </c>
-      <c r="E212" s="9">
+      <c r="E212" s="6">
         <f t="shared" si="3"/>
         <v>472</v>
       </c>
@@ -12595,7 +12574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>158</v>
       </c>
@@ -12608,7 +12587,7 @@
       <c r="D213" t="s">
         <v>16</v>
       </c>
-      <c r="E213" s="9">
+      <c r="E213" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -12649,7 +12628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>158</v>
       </c>
@@ -12662,7 +12641,7 @@
       <c r="D214" t="s">
         <v>56</v>
       </c>
-      <c r="E214" s="9">
+      <c r="E214" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -12703,7 +12682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>158</v>
       </c>
@@ -12716,7 +12695,7 @@
       <c r="D215" t="s">
         <v>16</v>
       </c>
-      <c r="E215" s="9">
+      <c r="E215" s="6">
         <f t="shared" si="3"/>
         <v>5981</v>
       </c>
@@ -12757,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>158</v>
       </c>
@@ -12770,7 +12749,7 @@
       <c r="D216" t="s">
         <v>163</v>
       </c>
-      <c r="E216" s="9">
+      <c r="E216" s="6">
         <f t="shared" si="3"/>
         <v>880</v>
       </c>
@@ -12811,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>158</v>
       </c>
@@ -12824,7 +12803,7 @@
       <c r="D217" t="s">
         <v>162</v>
       </c>
-      <c r="E217" s="9">
+      <c r="E217" s="6">
         <f t="shared" si="3"/>
         <v>809</v>
       </c>
@@ -12865,7 +12844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>158</v>
       </c>
@@ -12878,7 +12857,7 @@
       <c r="D218" t="s">
         <v>164</v>
       </c>
-      <c r="E218" s="9">
+      <c r="E218" s="6">
         <f t="shared" si="3"/>
         <v>789.5</v>
       </c>
@@ -12919,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>158</v>
       </c>
@@ -12932,7 +12911,7 @@
       <c r="D219" t="s">
         <v>165</v>
       </c>
-      <c r="E219" s="9">
+      <c r="E219" s="6">
         <f t="shared" si="3"/>
         <v>886.5</v>
       </c>
@@ -12973,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>158</v>
       </c>
@@ -12986,7 +12965,7 @@
       <c r="D220" t="s">
         <v>166</v>
       </c>
-      <c r="E220" s="9">
+      <c r="E220" s="6">
         <f t="shared" si="3"/>
         <v>872</v>
       </c>
@@ -13027,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>158</v>
       </c>
@@ -13040,7 +13019,7 @@
       <c r="D221" t="s">
         <v>167</v>
       </c>
-      <c r="E221" s="9">
+      <c r="E221" s="6">
         <f t="shared" si="3"/>
         <v>896</v>
       </c>
@@ -13081,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -13094,7 +13073,7 @@
       <c r="D222" t="s">
         <v>168</v>
       </c>
-      <c r="E222" s="9">
+      <c r="E222" s="6">
         <f t="shared" si="3"/>
         <v>848</v>
       </c>
@@ -13135,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -13148,7 +13127,7 @@
       <c r="D223" t="s">
         <v>16</v>
       </c>
-      <c r="E223" s="9">
+      <c r="E223" s="6">
         <f t="shared" si="3"/>
         <v>3278</v>
       </c>
@@ -13189,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -13202,7 +13181,7 @@
       <c r="D224" t="s">
         <v>170</v>
       </c>
-      <c r="E224" s="9">
+      <c r="E224" s="6">
         <f t="shared" si="3"/>
         <v>760</v>
       </c>
@@ -13243,7 +13222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -13256,7 +13235,7 @@
       <c r="D225" t="s">
         <v>171</v>
       </c>
-      <c r="E225" s="9">
+      <c r="E225" s="6">
         <f t="shared" si="3"/>
         <v>464</v>
       </c>
@@ -13297,7 +13276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -13310,7 +13289,7 @@
       <c r="D226" t="s">
         <v>172</v>
       </c>
-      <c r="E226" s="9">
+      <c r="E226" s="6">
         <f t="shared" si="3"/>
         <v>768</v>
       </c>
@@ -13351,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -13364,7 +13343,7 @@
       <c r="D227" t="s">
         <v>56</v>
       </c>
-      <c r="E227" s="9">
+      <c r="E227" s="6">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
@@ -13405,7 +13384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -13418,7 +13397,7 @@
       <c r="D228" t="s">
         <v>173</v>
       </c>
-      <c r="E228" s="9">
+      <c r="E228" s="6">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
@@ -13459,7 +13438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -13472,7 +13451,7 @@
       <c r="D229" t="s">
         <v>37</v>
       </c>
-      <c r="E229" s="9">
+      <c r="E229" s="6">
         <f t="shared" si="3"/>
         <v>416</v>
       </c>
@@ -13513,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>158</v>
       </c>
@@ -13526,7 +13505,7 @@
       <c r="D230" t="s">
         <v>174</v>
       </c>
-      <c r="E230" s="9">
+      <c r="E230" s="6">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
@@ -13567,7 +13546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>158</v>
       </c>
@@ -13580,7 +13559,7 @@
       <c r="D231" t="s">
         <v>16</v>
       </c>
-      <c r="E231" s="9">
+      <c r="E231" s="6">
         <f t="shared" si="3"/>
         <v>1009</v>
       </c>
@@ -13621,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>158</v>
       </c>
@@ -13634,7 +13613,7 @@
       <c r="D232" t="s">
         <v>176</v>
       </c>
-      <c r="E232" s="9">
+      <c r="E232" s="6">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
@@ -13675,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>158</v>
       </c>
@@ -13688,7 +13667,7 @@
       <c r="D233" t="s">
         <v>177</v>
       </c>
-      <c r="E233" s="9">
+      <c r="E233" s="6">
         <f t="shared" si="3"/>
         <v>912</v>
       </c>
@@ -13729,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>158</v>
       </c>
@@ -13742,7 +13721,7 @@
       <c r="D234" t="s">
         <v>16</v>
       </c>
-      <c r="E234" s="9">
+      <c r="E234" s="6">
         <f t="shared" si="3"/>
         <v>648.5</v>
       </c>
@@ -13783,7 +13762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>158</v>
       </c>
@@ -13796,7 +13775,7 @@
       <c r="D235" t="s">
         <v>81</v>
       </c>
-      <c r="E235" s="9">
+      <c r="E235" s="6">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
@@ -13837,7 +13816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>158</v>
       </c>
@@ -13850,7 +13829,7 @@
       <c r="D236" t="s">
         <v>131</v>
       </c>
-      <c r="E236" s="9">
+      <c r="E236" s="6">
         <f t="shared" si="3"/>
         <v>131.75</v>
       </c>
@@ -13891,7 +13870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>158</v>
       </c>
@@ -13904,7 +13883,7 @@
       <c r="D237" t="s">
         <v>165</v>
       </c>
-      <c r="E237" s="9">
+      <c r="E237" s="6">
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
@@ -13945,7 +13924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>158</v>
       </c>
@@ -13958,7 +13937,7 @@
       <c r="D238" t="s">
         <v>37</v>
       </c>
-      <c r="E238" s="9">
+      <c r="E238" s="6">
         <f t="shared" si="3"/>
         <v>165.5</v>
       </c>
@@ -13999,7 +13978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>158</v>
       </c>
@@ -14012,7 +13991,7 @@
       <c r="D239" t="s">
         <v>179</v>
       </c>
-      <c r="E239" s="9">
+      <c r="E239" s="6">
         <f t="shared" si="3"/>
         <v>254.75</v>
       </c>
@@ -14053,7 +14032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>158</v>
       </c>
@@ -14066,7 +14045,7 @@
       <c r="D240" t="s">
         <v>16</v>
       </c>
-      <c r="E240" s="9">
+      <c r="E240" s="6">
         <f t="shared" si="3"/>
         <v>386</v>
       </c>
@@ -14107,7 +14086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>158</v>
       </c>
@@ -14120,7 +14099,7 @@
       <c r="D241" t="s">
         <v>182</v>
       </c>
-      <c r="E241" s="9">
+      <c r="E241" s="6">
         <f t="shared" si="3"/>
         <v>229.5</v>
       </c>
@@ -14161,7 +14140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>158</v>
       </c>
@@ -14174,7 +14153,7 @@
       <c r="D242" t="s">
         <v>183</v>
       </c>
-      <c r="E242" s="9">
+      <c r="E242" s="6">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
@@ -14215,7 +14194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>158</v>
       </c>
@@ -14228,7 +14207,7 @@
       <c r="D243" t="s">
         <v>81</v>
       </c>
-      <c r="E243" s="9">
+      <c r="E243" s="6">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
@@ -14269,7 +14248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>158</v>
       </c>
@@ -14282,7 +14261,7 @@
       <c r="D244" t="s">
         <v>16</v>
       </c>
-      <c r="E244" s="9">
+      <c r="E244" s="6">
         <f t="shared" si="3"/>
         <v>3674.5</v>
       </c>
@@ -14323,7 +14302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>158</v>
       </c>
@@ -14336,7 +14315,7 @@
       <c r="D245" t="s">
         <v>185</v>
       </c>
-      <c r="E245" s="9">
+      <c r="E245" s="6">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
@@ -14377,7 +14356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>158</v>
       </c>
@@ -14390,7 +14369,7 @@
       <c r="D246" t="s">
         <v>186</v>
       </c>
-      <c r="E246" s="9">
+      <c r="E246" s="6">
         <f t="shared" si="3"/>
         <v>664</v>
       </c>
@@ -14431,7 +14410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>158</v>
       </c>
@@ -14444,7 +14423,7 @@
       <c r="D247" t="s">
         <v>176</v>
       </c>
-      <c r="E247" s="9">
+      <c r="E247" s="6">
         <f t="shared" si="3"/>
         <v>717</v>
       </c>
@@ -14485,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>158</v>
       </c>
@@ -14498,7 +14477,7 @@
       <c r="D248" t="s">
         <v>187</v>
       </c>
-      <c r="E248" s="9">
+      <c r="E248" s="6">
         <f t="shared" si="3"/>
         <v>768</v>
       </c>
@@ -14539,7 +14518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>158</v>
       </c>
@@ -14552,7 +14531,7 @@
       <c r="D249" t="s">
         <v>188</v>
       </c>
-      <c r="E249" s="9">
+      <c r="E249" s="6">
         <f t="shared" si="3"/>
         <v>756</v>
       </c>
@@ -14593,7 +14572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>158</v>
       </c>
@@ -14606,7 +14585,7 @@
       <c r="D250" t="s">
         <v>25</v>
       </c>
-      <c r="E250" s="9">
+      <c r="E250" s="6">
         <f t="shared" si="3"/>
         <v>601.5</v>
       </c>
@@ -14647,7 +14626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>158</v>
       </c>
@@ -14660,7 +14639,7 @@
       <c r="D251" t="s">
         <v>16</v>
       </c>
-      <c r="E251" s="9">
+      <c r="E251" s="6">
         <f t="shared" si="3"/>
         <v>656</v>
       </c>
@@ -14701,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>158</v>
       </c>
@@ -14714,7 +14693,7 @@
       <c r="D252" t="s">
         <v>189</v>
       </c>
-      <c r="E252" s="9">
+      <c r="E252" s="6">
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
@@ -14755,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>158</v>
       </c>
@@ -14768,7 +14747,7 @@
       <c r="D253" t="s">
         <v>190</v>
       </c>
-      <c r="E253" s="9">
+      <c r="E253" s="6">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
@@ -14809,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>158</v>
       </c>
@@ -14822,7 +14801,7 @@
       <c r="D254" t="s">
         <v>179</v>
       </c>
-      <c r="E254" s="9">
+      <c r="E254" s="6">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
@@ -14863,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>191</v>
       </c>
@@ -14876,7 +14855,7 @@
       <c r="D255" t="s">
         <v>16</v>
       </c>
-      <c r="E255" s="9">
+      <c r="E255" s="6">
         <f t="shared" si="3"/>
         <v>1175.5</v>
       </c>
@@ -14917,7 +14896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>191</v>
       </c>
@@ -14930,7 +14909,7 @@
       <c r="D256" t="s">
         <v>73</v>
       </c>
-      <c r="E256" s="9">
+      <c r="E256" s="6">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
@@ -14971,7 +14950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>191</v>
       </c>
@@ -14984,7 +14963,7 @@
       <c r="D257" t="s">
         <v>21</v>
       </c>
-      <c r="E257" s="9">
+      <c r="E257" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -15025,7 +15004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>191</v>
       </c>
@@ -15038,7 +15017,7 @@
       <c r="D258" t="s">
         <v>193</v>
       </c>
-      <c r="E258" s="9">
+      <c r="E258" s="6">
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
@@ -15079,7 +15058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>191</v>
       </c>
@@ -15092,7 +15071,7 @@
       <c r="D259" t="s">
         <v>72</v>
       </c>
-      <c r="E259" s="9">
+      <c r="E259" s="6">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
@@ -15133,7 +15112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>191</v>
       </c>
@@ -15146,7 +15125,7 @@
       <c r="D260" t="s">
         <v>135</v>
       </c>
-      <c r="E260" s="9">
+      <c r="E260" s="6">
         <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
@@ -15187,7 +15166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>191</v>
       </c>
@@ -15200,7 +15179,7 @@
       <c r="D261" t="s">
         <v>27</v>
       </c>
-      <c r="E261" s="9">
+      <c r="E261" s="6">
         <f t="shared" ref="E261:E298" si="4">SUM(F261:K261)</f>
         <v>193.5</v>
       </c>
@@ -15241,7 +15220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>191</v>
       </c>
@@ -15254,7 +15233,7 @@
       <c r="D262" t="s">
         <v>40</v>
       </c>
-      <c r="E262" s="9">
+      <c r="E262" s="6">
         <f t="shared" si="4"/>
         <v>335.5</v>
       </c>
@@ -15295,7 +15274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>194</v>
       </c>
@@ -15308,7 +15287,7 @@
       <c r="D263" t="s">
         <v>16</v>
       </c>
-      <c r="E263" s="9">
+      <c r="E263" s="6">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
@@ -15349,7 +15328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>194</v>
       </c>
@@ -15362,7 +15341,7 @@
       <c r="D264" t="s">
         <v>74</v>
       </c>
-      <c r="E264" s="9">
+      <c r="E264" s="6">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
@@ -15403,7 +15382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>194</v>
       </c>
@@ -15416,7 +15395,7 @@
       <c r="D265" t="s">
         <v>76</v>
       </c>
-      <c r="E265" s="9">
+      <c r="E265" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -15457,7 +15436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>194</v>
       </c>
@@ -15470,7 +15449,7 @@
       <c r="D266" t="s">
         <v>16</v>
       </c>
-      <c r="E266" s="9">
+      <c r="E266" s="6">
         <f t="shared" si="4"/>
         <v>2506</v>
       </c>
@@ -15511,7 +15490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>194</v>
       </c>
@@ -15524,7 +15503,7 @@
       <c r="D267" t="s">
         <v>19</v>
       </c>
-      <c r="E267" s="9">
+      <c r="E267" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -15565,7 +15544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>194</v>
       </c>
@@ -15578,7 +15557,7 @@
       <c r="D268" t="s">
         <v>197</v>
       </c>
-      <c r="E268" s="9">
+      <c r="E268" s="6">
         <f t="shared" si="4"/>
         <v>872</v>
       </c>
@@ -15619,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>194</v>
       </c>
@@ -15632,7 +15611,7 @@
       <c r="D269" t="s">
         <v>25</v>
       </c>
-      <c r="E269" s="9">
+      <c r="E269" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -15673,7 +15652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>194</v>
       </c>
@@ -15686,7 +15665,7 @@
       <c r="D270" t="s">
         <v>198</v>
       </c>
-      <c r="E270" s="9">
+      <c r="E270" s="6">
         <f t="shared" si="4"/>
         <v>776</v>
       </c>
@@ -15727,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>194</v>
       </c>
@@ -15740,7 +15719,7 @@
       <c r="D271" t="s">
         <v>199</v>
       </c>
-      <c r="E271" s="9">
+      <c r="E271" s="6">
         <f t="shared" si="4"/>
         <v>858</v>
       </c>
@@ -15781,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>200</v>
       </c>
@@ -15794,7 +15773,7 @@
       <c r="D272" t="s">
         <v>16</v>
       </c>
-      <c r="E272" s="9">
+      <c r="E272" s="6">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
@@ -15835,7 +15814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>200</v>
       </c>
@@ -15848,7 +15827,7 @@
       <c r="D273" t="s">
         <v>66</v>
       </c>
-      <c r="E273" s="9">
+      <c r="E273" s="6">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
@@ -15889,7 +15868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>200</v>
       </c>
@@ -15902,7 +15881,7 @@
       <c r="D274" t="s">
         <v>16</v>
       </c>
-      <c r="E274" s="9">
+      <c r="E274" s="6">
         <f t="shared" si="4"/>
         <v>399</v>
       </c>
@@ -15943,7 +15922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>200</v>
       </c>
@@ -15956,7 +15935,7 @@
       <c r="D275" t="s">
         <v>21</v>
       </c>
-      <c r="E275" s="9">
+      <c r="E275" s="6">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
@@ -15997,7 +15976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>200</v>
       </c>
@@ -16010,7 +15989,7 @@
       <c r="D276" t="s">
         <v>66</v>
       </c>
-      <c r="E276" s="9">
+      <c r="E276" s="6">
         <f t="shared" si="4"/>
         <v>123</v>
       </c>
@@ -16051,7 +16030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>202</v>
       </c>
@@ -16064,7 +16043,7 @@
       <c r="D277" t="s">
         <v>16</v>
       </c>
-      <c r="E277" s="9">
+      <c r="E277" s="6">
         <f t="shared" si="4"/>
         <v>108.45</v>
       </c>
@@ -16105,7 +16084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>202</v>
       </c>
@@ -16118,7 +16097,7 @@
       <c r="D278" t="s">
         <v>193</v>
       </c>
-      <c r="E278" s="9">
+      <c r="E278" s="6">
         <f t="shared" si="4"/>
         <v>43.5</v>
       </c>
@@ -16159,7 +16138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>202</v>
       </c>
@@ -16172,7 +16151,7 @@
       <c r="D279" t="s">
         <v>55</v>
       </c>
-      <c r="E279" s="9">
+      <c r="E279" s="6">
         <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
@@ -16213,7 +16192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>202</v>
       </c>
@@ -16226,7 +16205,7 @@
       <c r="D280" t="s">
         <v>204</v>
       </c>
-      <c r="E280" s="9">
+      <c r="E280" s="6">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -16267,7 +16246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>202</v>
       </c>
@@ -16280,7 +16259,7 @@
       <c r="D281" t="s">
         <v>37</v>
       </c>
-      <c r="E281" s="9">
+      <c r="E281" s="6">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -16321,7 +16300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>202</v>
       </c>
@@ -16334,7 +16313,7 @@
       <c r="D282" t="s">
         <v>205</v>
       </c>
-      <c r="E282" s="9">
+      <c r="E282" s="6">
         <f t="shared" si="4"/>
         <v>13.45</v>
       </c>
@@ -16375,7 +16354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>206</v>
       </c>
@@ -16388,7 +16367,7 @@
       <c r="D283" t="s">
         <v>16</v>
       </c>
-      <c r="E283" s="9">
+      <c r="E283" s="6">
         <f t="shared" si="4"/>
         <v>1574.25</v>
       </c>
@@ -16429,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>206</v>
       </c>
@@ -16442,7 +16421,7 @@
       <c r="D284" t="s">
         <v>208</v>
       </c>
-      <c r="E284" s="9">
+      <c r="E284" s="6">
         <f t="shared" si="4"/>
         <v>776</v>
       </c>
@@ -16483,7 +16462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>206</v>
       </c>
@@ -16496,7 +16475,7 @@
       <c r="D285" t="s">
         <v>51</v>
       </c>
-      <c r="E285" s="9">
+      <c r="E285" s="6">
         <f t="shared" si="4"/>
         <v>62.25</v>
       </c>
@@ -16537,7 +16516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>206</v>
       </c>
@@ -16550,7 +16529,7 @@
       <c r="D286" t="s">
         <v>65</v>
       </c>
-      <c r="E286" s="9">
+      <c r="E286" s="6">
         <f t="shared" si="4"/>
         <v>736</v>
       </c>
@@ -16591,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>209</v>
       </c>
@@ -16604,7 +16583,7 @@
       <c r="D287" t="s">
         <v>16</v>
       </c>
-      <c r="E287" s="9">
+      <c r="E287" s="6">
         <f t="shared" si="4"/>
         <v>888</v>
       </c>
@@ -16645,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>209</v>
       </c>
@@ -16658,7 +16637,7 @@
       <c r="D288" t="s">
         <v>20</v>
       </c>
-      <c r="E288" s="9">
+      <c r="E288" s="6">
         <f t="shared" si="4"/>
         <v>256</v>
       </c>
@@ -16699,7 +16678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>209</v>
       </c>
@@ -16712,7 +16691,7 @@
       <c r="D289" t="s">
         <v>82</v>
       </c>
-      <c r="E289" s="9">
+      <c r="E289" s="6">
         <f t="shared" si="4"/>
         <v>632</v>
       </c>
@@ -16753,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>211</v>
       </c>
@@ -16766,7 +16745,7 @@
       <c r="D290" t="s">
         <v>16</v>
       </c>
-      <c r="E290" s="9">
+      <c r="E290" s="6">
         <f t="shared" si="4"/>
         <v>2476</v>
       </c>
@@ -16807,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>211</v>
       </c>
@@ -16820,7 +16799,7 @@
       <c r="D291" t="s">
         <v>213</v>
       </c>
-      <c r="E291" s="9">
+      <c r="E291" s="6">
         <f t="shared" si="4"/>
         <v>832</v>
       </c>
@@ -16861,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>211</v>
       </c>
@@ -16874,7 +16853,7 @@
       <c r="D292" t="s">
         <v>214</v>
       </c>
-      <c r="E292" s="9">
+      <c r="E292" s="6">
         <f t="shared" si="4"/>
         <v>816</v>
       </c>
@@ -16915,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>211</v>
       </c>
@@ -16928,7 +16907,7 @@
       <c r="D293" t="s">
         <v>135</v>
       </c>
-      <c r="E293" s="9">
+      <c r="E293" s="6">
         <f t="shared" si="4"/>
         <v>828</v>
       </c>
@@ -16969,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>211</v>
       </c>
@@ -16982,7 +16961,7 @@
       <c r="D294" t="s">
         <v>16</v>
       </c>
-      <c r="E294" s="9">
+      <c r="E294" s="6">
         <f t="shared" si="4"/>
         <v>816</v>
       </c>
@@ -17023,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>211</v>
       </c>
@@ -17036,7 +17015,7 @@
       <c r="D295" t="s">
         <v>216</v>
       </c>
-      <c r="E295" s="9">
+      <c r="E295" s="6">
         <f t="shared" si="4"/>
         <v>816</v>
       </c>
@@ -17077,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>211</v>
       </c>
@@ -17090,7 +17069,7 @@
       <c r="D296" t="s">
         <v>16</v>
       </c>
-      <c r="E296" s="9">
+      <c r="E296" s="6">
         <f t="shared" si="4"/>
         <v>1392</v>
       </c>
@@ -17131,7 +17110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>211</v>
       </c>
@@ -17144,7 +17123,7 @@
       <c r="D297" t="s">
         <v>218</v>
       </c>
-      <c r="E297" s="9">
+      <c r="E297" s="6">
         <f t="shared" si="4"/>
         <v>720</v>
       </c>
@@ -17185,7 +17164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>211</v>
       </c>
@@ -17198,7 +17177,7 @@
       <c r="D298" t="s">
         <v>219</v>
       </c>
-      <c r="E298" s="9">
+      <c r="E298" s="6">
         <f t="shared" si="4"/>
         <v>672</v>
       </c>
@@ -17267,18 +17246,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17447,14 +17426,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09ABDBA5-B861-4C7F-B5F7-353E359527E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -17467,6 +17438,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
